--- a/cadastro_salao/data/clientes_db.xlsx
+++ b/cadastro_salao/data/clientes_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nome</t>
   </si>
@@ -28,28 +28,13 @@
     <t>tag</t>
   </si>
   <si>
-    <t>ruth</t>
-  </si>
-  <si>
     <t>abraao</t>
   </si>
   <si>
-    <t>pedro</t>
+    <t>85986820652</t>
   </si>
   <si>
     <t>abraaocursos2019@gmail.com</t>
-  </si>
-  <si>
-    <t>85986820652</t>
-  </si>
-  <si>
-    <t>85986862632</t>
-  </si>
-  <si>
-    <t>abraaocursos2017@gmail.com</t>
-  </si>
-  <si>
-    <t>cobranca1@floraltextil.com.br</t>
   </si>
   <si>
     <t>cadastro</t>
@@ -410,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,41 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_salao/data/clientes_db.xlsx
+++ b/cadastro_salao/data/clientes_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>nome</t>
   </si>
@@ -28,13 +28,451 @@
     <t>tag</t>
   </si>
   <si>
-    <t>abraao</t>
-  </si>
-  <si>
-    <t>85986820652</t>
+    <t>abraão alves</t>
+  </si>
+  <si>
+    <t>gilson ferreira</t>
+  </si>
+  <si>
+    <t>maria silva</t>
+  </si>
+  <si>
+    <t>joão santos</t>
+  </si>
+  <si>
+    <t>ana oliveira</t>
+  </si>
+  <si>
+    <t>carlos souza</t>
+  </si>
+  <si>
+    <t>lúcia costa</t>
+  </si>
+  <si>
+    <t>pedro almeida</t>
+  </si>
+  <si>
+    <t>sofia pereira</t>
+  </si>
+  <si>
+    <t>ricardo gomes</t>
+  </si>
+  <si>
+    <t>beatriz lima</t>
+  </si>
+  <si>
+    <t>andré carvalho</t>
+  </si>
+  <si>
+    <t>mariana rocha</t>
+  </si>
+  <si>
+    <t>felipe fernandes</t>
+  </si>
+  <si>
+    <t>camila barbosa</t>
+  </si>
+  <si>
+    <t>gustavo ribeiro</t>
+  </si>
+  <si>
+    <t>julia martins</t>
+  </si>
+  <si>
+    <t>daniel pires</t>
+  </si>
+  <si>
+    <t>bruna nunes</t>
+  </si>
+  <si>
+    <t>eduardo alves</t>
+  </si>
+  <si>
+    <t>larissa mendes</t>
+  </si>
+  <si>
+    <t>vitor dutra</t>
+  </si>
+  <si>
+    <t>isabela freitas</t>
+  </si>
+  <si>
+    <t>marcelo</t>
+  </si>
+  <si>
+    <t>natalia dias</t>
+  </si>
+  <si>
+    <t>tiago morais</t>
+  </si>
+  <si>
+    <t>rebeca azevedo</t>
+  </si>
+  <si>
+    <t>guilerme texeira</t>
+  </si>
+  <si>
+    <t>patricia vieira</t>
+  </si>
+  <si>
+    <t>alexandre melo</t>
+  </si>
+  <si>
+    <t>gabriela fonseca</t>
+  </si>
+  <si>
+    <t>roberto bueno</t>
+  </si>
+  <si>
+    <t>vanessa vasconcelos</t>
+  </si>
+  <si>
+    <t>thiago nogueira</t>
+  </si>
+  <si>
+    <t>amanda conceição</t>
+  </si>
+  <si>
+    <t>leonardo cruz</t>
+  </si>
+  <si>
+    <t>elisa correia</t>
+  </si>
+  <si>
+    <t>paulo tavares</t>
+  </si>
+  <si>
+    <t>priscilla xavier</t>
+  </si>
+  <si>
+    <t>diego rocha</t>
+  </si>
+  <si>
+    <t>renata leal</t>
+  </si>
+  <si>
+    <t>henrique guedes</t>
+  </si>
+  <si>
+    <t>viviane beltrão</t>
+  </si>
+  <si>
+    <t>rafael couto</t>
+  </si>
+  <si>
+    <t>janaira sales</t>
+  </si>
+  <si>
+    <t>sérgio ramos</t>
+  </si>
+  <si>
+    <t>lucas faria</t>
+  </si>
+  <si>
+    <t>débora pinto</t>
+  </si>
+  <si>
+    <t>mateus borges</t>
+  </si>
+  <si>
+    <t>evelin gomez</t>
+  </si>
+  <si>
+    <t>85 98682-0652</t>
+  </si>
+  <si>
+    <t>85 99986-3226</t>
+  </si>
+  <si>
+    <t>85 98854-6332</t>
+  </si>
+  <si>
+    <t>85 98787-9641</t>
+  </si>
+  <si>
+    <t>88 99696-9632</t>
+  </si>
+  <si>
+    <t>85 98784-0102</t>
+  </si>
+  <si>
+    <t>85 98881-8283</t>
+  </si>
+  <si>
+    <t>85 98585-8585</t>
+  </si>
+  <si>
+    <t>85 99992-9291</t>
+  </si>
+  <si>
+    <t>85 99889-8181</t>
+  </si>
+  <si>
+    <t>85 99695-5113</t>
+  </si>
+  <si>
+    <t>85 95656-5151</t>
+  </si>
+  <si>
+    <t>85 95412-0232</t>
+  </si>
+  <si>
+    <t>85 91515-1515</t>
+  </si>
+  <si>
+    <t>85 99494-9494</t>
+  </si>
+  <si>
+    <t>85 98584-0201</t>
+  </si>
+  <si>
+    <t>85 94545-1364</t>
+  </si>
+  <si>
+    <t>85 95674-1234</t>
+  </si>
+  <si>
+    <t>85 91547-3636</t>
+  </si>
+  <si>
+    <t>85 98456-9714</t>
+  </si>
+  <si>
+    <t>85 98787-0123</t>
+  </si>
+  <si>
+    <t>85 98457-2154</t>
+  </si>
+  <si>
+    <t>85 98787-8788</t>
+  </si>
+  <si>
+    <t>85 98685-0541</t>
+  </si>
+  <si>
+    <t>85 91523-2021</t>
+  </si>
+  <si>
+    <t>85 98485-0123</t>
+  </si>
+  <si>
+    <t>85 99959-9999</t>
+  </si>
+  <si>
+    <t>85 99997-7878</t>
+  </si>
+  <si>
+    <t>85 98784-2525</t>
+  </si>
+  <si>
+    <t>85 94578-0102</t>
+  </si>
+  <si>
+    <t>85 99985-8585</t>
+  </si>
+  <si>
+    <t>85 91215-1512</t>
+  </si>
+  <si>
+    <t>85 97401-0196</t>
+  </si>
+  <si>
+    <t>85 90909-0909</t>
+  </si>
+  <si>
+    <t>85 99283-6514</t>
+  </si>
+  <si>
+    <t>85 90098-7458</t>
+  </si>
+  <si>
+    <t>85 92598-7841</t>
+  </si>
+  <si>
+    <t>85 98874-7447</t>
+  </si>
+  <si>
+    <t>85 96557-7984</t>
+  </si>
+  <si>
+    <t>85 97432-6541</t>
+  </si>
+  <si>
+    <t>85 94578-1515</t>
+  </si>
+  <si>
+    <t>85 98888-8888</t>
+  </si>
+  <si>
+    <t>85 98487-2545</t>
+  </si>
+  <si>
+    <t>85 98784-8457</t>
+  </si>
+  <si>
+    <t>85 99999-0000</t>
+  </si>
+  <si>
+    <t>85 90000-0001</t>
+  </si>
+  <si>
+    <t>85 98787-8787</t>
+  </si>
+  <si>
+    <t>85 91111-1111</t>
+  </si>
+  <si>
+    <t>85 99112-6532</t>
   </si>
   <si>
     <t>abraaocursos2019@gmail.com</t>
+  </si>
+  <si>
+    <t>gilsonferreira@hotmail.com</t>
+  </si>
+  <si>
+    <t>mariasilva2025@gmail.com</t>
+  </si>
+  <si>
+    <t>joaos@bol.com</t>
+  </si>
+  <si>
+    <t>anaoliv@hotmail.com</t>
+  </si>
+  <si>
+    <t>souzac@hotmail.com</t>
+  </si>
+  <si>
+    <t>lucia@gmail.com</t>
+  </si>
+  <si>
+    <t>pedroalmeida@bol.com</t>
+  </si>
+  <si>
+    <t>sofiapereira@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardogomes@hotmail.com</t>
+  </si>
+  <si>
+    <t>beatrizl@gmail.com</t>
+  </si>
+  <si>
+    <t>andrecarvalho123@hotmail.com</t>
+  </si>
+  <si>
+    <t>marianaro@gmail.com</t>
+  </si>
+  <si>
+    <t>felipefernandes@hotmail.com</t>
+  </si>
+  <si>
+    <t>camilabcamila@bol.com</t>
+  </si>
+  <si>
+    <t>ribeiro2025@bol.com</t>
+  </si>
+  <si>
+    <t>juliamartins@bol.com</t>
+  </si>
+  <si>
+    <t>daniel@hotmail.com</t>
+  </si>
+  <si>
+    <t>brunanunes@gmail.com</t>
+  </si>
+  <si>
+    <t>eduardoalves@gmail.com</t>
+  </si>
+  <si>
+    <t>larissamendes2024@bol.com</t>
+  </si>
+  <si>
+    <t>vitordutra2019@gmail.com</t>
+  </si>
+  <si>
+    <t>isabelaf@hotmail.com</t>
+  </si>
+  <si>
+    <t>marcelocastro@gmail.com</t>
+  </si>
+  <si>
+    <t>natalia@hotmail.com</t>
+  </si>
+  <si>
+    <t>morais2025@gmail.com</t>
+  </si>
+  <si>
+    <t>rebecaazevedo@gmail.com</t>
+  </si>
+  <si>
+    <t>guilerme123texeira@bol.com</t>
+  </si>
+  <si>
+    <t>patricia@hotmail.com</t>
+  </si>
+  <si>
+    <t>alexandremelo2025@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielafonseca@gmail.com</t>
+  </si>
+  <si>
+    <t>robertobueno1992@hotmail.com</t>
+  </si>
+  <si>
+    <t>vanessacelos@gmail.com</t>
+  </si>
+  <si>
+    <t>thiagonogueira@bol.com</t>
+  </si>
+  <si>
+    <t>amanda@hotmail.com</t>
+  </si>
+  <si>
+    <t>leocruz@bol.com</t>
+  </si>
+  <si>
+    <t>elisa_correia@gmail.com</t>
+  </si>
+  <si>
+    <t>tavares@hotmail.com</t>
+  </si>
+  <si>
+    <t>pris_xavier@gmail.com</t>
+  </si>
+  <si>
+    <t>rochinha@bol.com</t>
+  </si>
+  <si>
+    <t>renataleal@gmail.com</t>
+  </si>
+  <si>
+    <t>guedesh@hotmail.com</t>
+  </si>
+  <si>
+    <t>vibeltrao@hotmail.com</t>
+  </si>
+  <si>
+    <t>rafaelcouto@hotmail.com</t>
+  </si>
+  <si>
+    <t>janaira@hotmail.com</t>
+  </si>
+  <si>
+    <t>ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>lucasfaria99@gmail.com</t>
+  </si>
+  <si>
+    <t>pintodebora@bol.com</t>
+  </si>
+  <si>
+    <t>mateusborges2011@gmail.com</t>
+  </si>
+  <si>
+    <t>evelingomez@hotmail.com</t>
   </si>
   <si>
     <t>cadastro</t>
@@ -395,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +858,699 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
